--- a/classification/droptc/sentence/bert-base-uncased/freeze/87212562/prediction.xlsx
+++ b/classification/droptc/sentence/bert-base-uncased/freeze/87212562/prediction.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4487435519695282</v>
+        <v>0.9666017889976501</v>
       </c>
     </row>
     <row r="3">
@@ -506,19 +506,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4268898665904999</v>
+        <v>0.9957942962646484</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3256613612174988</v>
+        <v>0.662976086139679</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.812072217464447</v>
+        <v>0.5880146622657776</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7206321358680725</v>
+        <v>0.9910900592803955</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8299618363380432</v>
+        <v>0.8851035833358765</v>
       </c>
     </row>
     <row r="8">
@@ -646,7 +646,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4996197819709778</v>
+        <v>0.9896649718284607</v>
       </c>
     </row>
     <row r="9">
@@ -674,7 +674,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -683,10 +683,10 @@
         </is>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3773852288722992</v>
+        <v>0.9941335320472717</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3593370914459229</v>
+        <v>0.9896649718284607</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6356268525123596</v>
+        <v>0.9453699588775635</v>
       </c>
     </row>
     <row r="12">
@@ -758,19 +758,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3638553321361542</v>
+        <v>0.9669380187988281</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5988116860389709</v>
+        <v>0.9715293645858765</v>
       </c>
     </row>
     <row r="14">
@@ -814,7 +814,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.56545490026474</v>
+        <v>0.9521961212158203</v>
       </c>
     </row>
     <row r="15">
@@ -842,7 +842,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3475817739963531</v>
+        <v>0.7019050717353821</v>
       </c>
     </row>
     <row r="16">
@@ -870,7 +870,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6150265336036682</v>
+        <v>0.8677064180374146</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8986654877662659</v>
+        <v>0.9705819487571716</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4678696990013123</v>
+        <v>0.5434612035751343</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8623573780059814</v>
+        <v>0.9926486611366272</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7982717156410217</v>
+        <v>0.9254016876220703</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.810342013835907</v>
+        <v>0.9863930344581604</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6902207136154175</v>
+        <v>0.9784485101699829</v>
       </c>
     </row>
     <row r="23">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1075,10 +1075,10 @@
         </is>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6468742489814758</v>
+        <v>0.9607366919517517</v>
       </c>
     </row>
     <row r="24">
@@ -1094,19 +1094,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4287839829921722</v>
+        <v>0.9413424134254456</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6351906061172485</v>
+        <v>0.5691640377044678</v>
       </c>
     </row>
     <row r="26">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.420965164899826</v>
+        <v>0.2913359403610229</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7578209638595581</v>
+        <v>0.7982200384140015</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8205695748329163</v>
+        <v>0.9957942962646484</v>
       </c>
     </row>
     <row r="29">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5340965986251831</v>
+        <v>0.7835760712623596</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9121479392051697</v>
+        <v>0.9396674633026123</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5876165628433228</v>
+        <v>0.9469312429428101</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.7192058563232422</v>
+        <v>0.6433067321777344</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9314593076705933</v>
+        <v>0.634352445602417</v>
       </c>
     </row>
     <row r="34">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1383,10 +1383,10 @@
         </is>
       </c>
       <c r="E34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9336845874786377</v>
+        <v>0.705477237701416</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7894803285598755</v>
+        <v>0.9402728080749512</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3156528472900391</v>
+        <v>0.9551660418510437</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7160699963569641</v>
+        <v>0.8925550580024719</v>
       </c>
     </row>
     <row r="38">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1495,10 +1495,10 @@
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3370756804943085</v>
+        <v>0.8460725545883179</v>
       </c>
     </row>
     <row r="39">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.6417691111564636</v>
+        <v>0.7662853002548218</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.6113473176956177</v>
+        <v>0.4061660766601562</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3256613612174988</v>
+        <v>0.9780181050300598</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3139584064483643</v>
+        <v>0.7984625697135925</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8986654877662659</v>
+        <v>0.6911646127700806</v>
       </c>
     </row>
     <row r="44">
@@ -1659,14 +1659,14 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3773852288722992</v>
+        <v>0.9763878583908081</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.7148863673210144</v>
+        <v>0.8420197367668152</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3111214339733124</v>
+        <v>0.8748299479484558</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7627314329147339</v>
+        <v>0.4010733664035797</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7175307869911194</v>
+        <v>0.9207381010055542</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7866230607032776</v>
+        <v>0.9969770908355713</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.4702543616294861</v>
+        <v>0.8796378374099731</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9038509130477905</v>
+        <v>0.2968246638774872</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.6192185282707214</v>
+        <v>0.9242913126945496</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8884008526802063</v>
+        <v>0.8796378374099731</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.814350426197052</v>
+        <v>0.5205324292182922</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.7136583924293518</v>
+        <v>0.9904711246490479</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.8813850879669189</v>
+        <v>0.9983861446380615</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.8386632204055786</v>
+        <v>0.9983526468276978</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.8632561564445496</v>
+        <v>0.8515815734863281</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.4287839829921722</v>
+        <v>0.8962607383728027</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5489034652709961</v>
+        <v>0.9665707945823669</v>
       </c>
     </row>
     <row r="61">
@@ -2130,19 +2130,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.4826341271400452</v>
+        <v>0.8804488182067871</v>
       </c>
     </row>
     <row r="62">
@@ -2158,19 +2158,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.2604509592056274</v>
+        <v>0.9917749166488647</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.7828815579414368</v>
+        <v>0.6745991706848145</v>
       </c>
     </row>
     <row r="64">
@@ -2219,14 +2219,14 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.3486453592777252</v>
+        <v>0.3620181083679199</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.7230240106582642</v>
+        <v>0.8549173474311829</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.7423481941223145</v>
+        <v>0.8549173474311829</v>
       </c>
     </row>
     <row r="67">
@@ -2303,14 +2303,14 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.3461303114891052</v>
+        <v>0.4663253724575043</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.6617053151130676</v>
+        <v>0.8549173474311829</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7529487013816833</v>
+        <v>0.5296673774719238</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.7541683316230774</v>
+        <v>0.9662877917289734</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8388231992721558</v>
+        <v>0.4978656470775604</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.8335058689117432</v>
+        <v>0.9729358553886414</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.438791960477829</v>
+        <v>0.9718050956726074</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.8949816823005676</v>
+        <v>0.8799153566360474</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.7335366606712341</v>
+        <v>0.604004979133606</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.399545431137085</v>
+        <v>0.9718050956726074</v>
       </c>
     </row>
     <row r="77">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="E77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.5641944408416748</v>
+        <v>0.9323859214782715</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7035123705863953</v>
+        <v>0.9718050956726074</v>
       </c>
     </row>
     <row r="79">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2643,10 +2643,10 @@
         </is>
       </c>
       <c r="E79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.7748249173164368</v>
+        <v>0.9896463751792908</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.5322855710983276</v>
+        <v>0.9203557372093201</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9314593076705933</v>
+        <v>0.6115439534187317</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.431533008813858</v>
+        <v>0.9203557372093201</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.6872746348381042</v>
+        <v>0.9481114745140076</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.6327816843986511</v>
+        <v>0.9481114745140076</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.5180137157440186</v>
+        <v>0.9938172698020935</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.6185750961303711</v>
+        <v>0.7956836819648743</v>
       </c>
     </row>
     <row r="87">
@@ -2858,19 +2858,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E87" t="b">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.4241260290145874</v>
+        <v>0.7937676310539246</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.715578019618988</v>
+        <v>0.9006025791168213</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.8526614904403687</v>
+        <v>0.979454517364502</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.6781226396560669</v>
+        <v>0.9617895483970642</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.8986654877662659</v>
+        <v>0.9654607772827148</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.7766836285591125</v>
+        <v>0.9691361784934998</v>
       </c>
     </row>
     <row r="93">
@@ -3026,19 +3026,19 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E93" t="b">
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.4131658971309662</v>
+        <v>0.9728512167930603</v>
       </c>
     </row>
     <row r="94">
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3063,10 +3063,10 @@
         </is>
       </c>
       <c r="E94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.6333935856819153</v>
+        <v>0.9769991040229797</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.8621506094932556</v>
+        <v>0.9699634909629822</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.6653255820274353</v>
+        <v>0.5023161172866821</v>
       </c>
     </row>
     <row r="97">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.751697301864624</v>
+        <v>0.3466113805770874</v>
       </c>
     </row>
     <row r="98">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="E98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3475817739963531</v>
+        <v>0.9813734889030457</v>
       </c>
     </row>
     <row r="99">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3203,10 +3203,10 @@
         </is>
       </c>
       <c r="E99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5697200894355774</v>
+        <v>0.3319709002971649</v>
       </c>
     </row>
     <row r="100">
@@ -3222,19 +3222,19 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2936567962169647</v>
+        <v>0.9473694562911987</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E101" t="b">
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3787796795368195</v>
+        <v>0.9470363855361938</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.7220495343208313</v>
+        <v>0.3291676938533783</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.7413374185562134</v>
+        <v>0.9850448966026306</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.8534876108169556</v>
+        <v>0.9425899982452393</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.6040134429931641</v>
+        <v>0.9400219321250916</v>
       </c>
     </row>
     <row r="106">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3399,10 +3399,10 @@
         </is>
       </c>
       <c r="E106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.4016004204750061</v>
+        <v>0.5390141606330872</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.6285379528999329</v>
+        <v>0.5574696063995361</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.6277848482131958</v>
+        <v>0.6786746978759766</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.7680581212043762</v>
+        <v>0.7062975764274597</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.8819491267204285</v>
+        <v>0.9957942962646484</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.6685528755187988</v>
+        <v>0.4691016972064972</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.4546086490154266</v>
+        <v>0.523326575756073</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9544172286987305</v>
+        <v>0.8977963924407959</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.6771150231361389</v>
+        <v>0.7861701846122742</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.6072654128074646</v>
+        <v>0.4284313917160034</v>
       </c>
     </row>
     <row r="116">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3679,10 +3679,10 @@
         </is>
       </c>
       <c r="E116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.5327681303024292</v>
+        <v>0.8028649091720581</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.7557001709938049</v>
+        <v>0.9498050808906555</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.6289848685264587</v>
+        <v>0.4797795116901398</v>
       </c>
     </row>
     <row r="119">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="E119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.399545431137085</v>
+        <v>0.9378108382225037</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.691490113735199</v>
+        <v>0.9957942962646484</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.6285379528999329</v>
+        <v>0.9270327091217041</v>
       </c>
     </row>
     <row r="122">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3847,10 +3847,10 @@
         </is>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.5688758492469788</v>
+        <v>0.9934638142585754</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.8974998593330383</v>
+        <v>0.9270327091217041</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.8986654877662659</v>
+        <v>0.9934638142585754</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.3486453592777252</v>
+        <v>0.9270327091217041</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.8377955555915833</v>
+        <v>0.9987857937812805</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.7391698956489563</v>
+        <v>0.6079529523849487</v>
       </c>
     </row>
     <row r="128">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4015,10 +4015,10 @@
         </is>
       </c>
       <c r="E128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.4074160158634186</v>
+        <v>0.9957942962646484</v>
       </c>
     </row>
     <row r="129">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4043,10 +4043,10 @@
         </is>
       </c>
       <c r="E129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.4900873303413391</v>
+        <v>0.9557285308837891</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.6262801289558411</v>
+        <v>0.9196650385856628</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.4243199527263641</v>
+        <v>0.9922592043876648</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.6162853837013245</v>
+        <v>0.4855358004570007</v>
       </c>
     </row>
     <row r="133">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4155,10 +4155,10 @@
         </is>
       </c>
       <c r="E133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.6612504124641418</v>
+        <v>0.9939473867416382</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.6972591876983643</v>
+        <v>0.4797460436820984</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.8150469064712524</v>
+        <v>0.8641179203987122</v>
       </c>
     </row>
     <row r="136">
@@ -4235,14 +4235,14 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.7099665999412537</v>
+        <v>0.5009369254112244</v>
       </c>
     </row>
     <row r="137">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.3185045421123505</v>
+        <v>0.9954496026039124</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.8986654877662659</v>
+        <v>0.9327464699745178</v>
       </c>
     </row>
     <row r="139">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4323,10 +4323,10 @@
         </is>
       </c>
       <c r="E139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.4016004204750061</v>
+        <v>0.9960250854492188</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.6376073360443115</v>
+        <v>0.961625337600708</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.902483344078064</v>
+        <v>0.8418617844581604</v>
       </c>
     </row>
     <row r="142">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4407,10 +4407,10 @@
         </is>
       </c>
       <c r="E142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.5539213418960571</v>
+        <v>0.9957942962646484</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.6016574501991272</v>
+        <v>0.6676222681999207</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.743051290512085</v>
+        <v>0.9847479462623596</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.5533171892166138</v>
+        <v>0.6676222681999207</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.7601317763328552</v>
+        <v>0.9730079174041748</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.8884008526802063</v>
+        <v>0.5296673774719238</v>
       </c>
     </row>
     <row r="148">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4575,10 +4575,10 @@
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.4163767695426941</v>
+        <v>0.9656165242195129</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.8986654877662659</v>
+        <v>0.5638313889503479</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.3164466023445129</v>
+        <v>0.3609039187431335</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.79863440990448</v>
+        <v>0.9957942962646484</v>
       </c>
     </row>
     <row r="152">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4687,10 +4687,10 @@
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.8986654877662659</v>
+        <v>0.526077926158905</v>
       </c>
     </row>
     <row r="153">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4715,10 +4715,10 @@
         </is>
       </c>
       <c r="E153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.7931575775146484</v>
+        <v>0.9888750314712524</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.6285379528999329</v>
+        <v>0.7884315252304077</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.6708554029464722</v>
+        <v>0.9847704172134399</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.7555508017539978</v>
+        <v>0.7102224230766296</v>
       </c>
     </row>
     <row r="157">
@@ -4818,19 +4818,19 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E157" t="b">
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.3733805418014526</v>
+        <v>0.9963182210922241</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.7194727063179016</v>
+        <v>0.946502685546875</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.685214102268219</v>
+        <v>0.9985145926475525</v>
       </c>
     </row>
     <row r="160">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4911,10 +4911,10 @@
         </is>
       </c>
       <c r="E160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.7068983912467957</v>
+        <v>0.7971933484077454</v>
       </c>
     </row>
     <row r="161">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4939,10 +4939,10 @@
         </is>
       </c>
       <c r="E161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.4429535865783691</v>
+        <v>0.917898952960968</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.546562135219574</v>
+        <v>0.8423261046409607</v>
       </c>
     </row>
     <row r="163">
@@ -4991,14 +4991,14 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>0.8192390203475952</v>
+        <v>0.415744423866272</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9095596671104431</v>
+        <v>0.7663727998733521</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.8876424431800842</v>
+        <v>0.9027508497238159</v>
       </c>
     </row>
     <row r="166">
@@ -5070,7 +5070,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5079,10 +5079,10 @@
         </is>
       </c>
       <c r="E166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.5995038747787476</v>
+        <v>0.9036228060722351</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.8558351993560791</v>
+        <v>0.440964549779892</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.6996063590049744</v>
+        <v>0.4208636879920959</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.6657957434654236</v>
+        <v>0.9957942962646484</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.7302391529083252</v>
+        <v>0.440964549779892</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.5556321144104004</v>
+        <v>0.5062772631645203</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.8310403227806091</v>
+        <v>0.9957942962646484</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.550776481628418</v>
+        <v>0.9462205171585083</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.8986654877662659</v>
+        <v>0.9558850526809692</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.8260197639465332</v>
+        <v>0.9462205171585083</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.7136583924293518</v>
+        <v>0.9462205171585083</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.7032163143157959</v>
+        <v>0.9558850526809692</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.8129826784133911</v>
+        <v>0.9975776076316833</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.5876165628433228</v>
+        <v>0.9963548183441162</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.6770647764205933</v>
+        <v>0.8493298888206482</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9280807375907898</v>
+        <v>0.4998405575752258</v>
       </c>
     </row>
     <row r="182">
@@ -5518,19 +5518,19 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E182" t="b">
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.4241260290145874</v>
+        <v>0.9858097434043884</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.3756383955478668</v>
+        <v>0.4125171601772308</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.7041071057319641</v>
+        <v>0.9849321246147156</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.4263870716094971</v>
+        <v>0.8800138831138611</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E186" t="b">
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.4241260290145874</v>
+        <v>0.8963249921798706</v>
       </c>
     </row>
     <row r="187">
@@ -5658,7 +5658,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5667,10 +5667,10 @@
         </is>
       </c>
       <c r="E187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.5930763483047485</v>
+        <v>0.9603419303894043</v>
       </c>
     </row>
     <row r="188">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5695,10 +5695,10 @@
         </is>
       </c>
       <c r="E188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.5951342582702637</v>
+        <v>0.979902446269989</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.5711785554885864</v>
+        <v>0.790679395198822</v>
       </c>
     </row>
     <row r="190">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5751,10 +5751,10 @@
         </is>
       </c>
       <c r="E190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.4412312507629395</v>
+        <v>0.8925256133079529</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.6783552765846252</v>
+        <v>0.5187801718711853</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.7056883573532104</v>
+        <v>0.9359512329101562</v>
       </c>
     </row>
     <row r="193">
@@ -5826,7 +5826,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5835,10 +5835,10 @@
         </is>
       </c>
       <c r="E193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.4016004204750061</v>
+        <v>0.9789173603057861</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.7009742259979248</v>
+        <v>0.7788863182067871</v>
       </c>
     </row>
     <row r="195">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5891,10 +5891,10 @@
         </is>
       </c>
       <c r="E195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>0.7584527730941772</v>
+        <v>0.4774609506130219</v>
       </c>
     </row>
     <row r="196">
@@ -5910,7 +5910,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5919,10 +5919,10 @@
         </is>
       </c>
       <c r="E196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.7297568321228027</v>
+        <v>0.9911088943481445</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.7429397106170654</v>
+        <v>0.9814529418945312</v>
       </c>
     </row>
     <row r="198">
@@ -5966,7 +5966,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5975,10 +5975,10 @@
         </is>
       </c>
       <c r="E198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.66070955991745</v>
+        <v>0.924638569355011</v>
       </c>
     </row>
     <row r="199">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6003,10 +6003,10 @@
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.4663038849830627</v>
+        <v>0.9916090369224548</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.4889147579669952</v>
+        <v>0.6157520413398743</v>
       </c>
     </row>
     <row r="201">
@@ -6050,19 +6050,19 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E201" t="b">
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.4287839829921722</v>
+        <v>0.9846872687339783</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.6307877898216248</v>
+        <v>0.980085551738739</v>
       </c>
     </row>
     <row r="203">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="E203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.561521589756012</v>
+        <v>0.8353426456451416</v>
       </c>
     </row>
     <row r="204">
@@ -6139,14 +6139,14 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>0.5888327956199646</v>
+        <v>0.3083877563476562</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.8486214876174927</v>
+        <v>0.5485753417015076</v>
       </c>
     </row>
     <row r="206">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6199,10 +6199,10 @@
         </is>
       </c>
       <c r="E206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.4555871784687042</v>
+        <v>0.9981541037559509</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.8057559728622437</v>
+        <v>0.4648340940475464</v>
       </c>
     </row>
     <row r="208">
@@ -6246,19 +6246,19 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.3427784144878387</v>
+        <v>0.9942875504493713</v>
       </c>
     </row>
     <row r="209">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="E209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.8986654877662659</v>
+        <v>0.4259925484657288</v>
       </c>
     </row>
     <row r="210">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6311,10 +6311,10 @@
         </is>
       </c>
       <c r="E210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.4464773833751678</v>
+        <v>0.9938018918037415</v>
       </c>
     </row>
   </sheetData>
